--- a/biology/Botanique/Ribes_(genre)/Ribes_(genre).xlsx
+++ b/biology/Botanique/Ribes_(genre)/Ribes_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Groseillers, Cassissiers
 Ribes est un genre d'arbustes (les groseilliers et les cassissiers) de la famille des Grossulariacées, dont plusieurs espèces sont cultivées pour leurs fruits diversement colorés (groseilles et cassis) ou comme plantes ornementales. Ils sont originaires des régions tempérées de l'hémisphère nord et de la Cordillère des Andes.
@@ -514,7 +526,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les groseilliers se multiplient facilement par bouturage, marcottage ou semis. Les boutures ou marcottes fructifient en 2 à 3 ans alors que les semis nécessitent 4 à 5 ans.
 </t>
@@ -545,7 +559,9 @@
           <t>Ravageurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des pucerons jaune-orangé Cryptomyzus ribis vivant au revers du limbe peuvent provoquer des boursouflures vertes ou rouges sur les feuilles.
 Les papillons de nuit (hétérocères) suivants se nourrissent de groseilliers :
@@ -585,11 +601,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Détermination (Europe)
-Il existe des espèces sauvages et d'autres cultivées dont certaines se répandent comme subspontanées. La présence d'épines identifie le Groseillier épineux Ribes uva-crispa L.[1], sauvage, qui porte des fruits de 1 cm maximum à poils raides et le Groseillier à maquereau et ses cultivars, dont les baies de 1 à 4 cm peuvent être glabres ou entourées de poils mous.
-Les espèces sans épines se distinguent par le parfum des feuilles: Groseillier noir (Cassis)[1], un pétiole court plus petit que la moitié de la longueur du limbe de la feuille: Groseillier des Alpes R. alpinum L., il se remarque aussi par ses baies rouges en grappes dressées[2]; La forme et la taille des feuilles différencie le Groseillier rouge[1] avec ses feuilles en forme de cœur de 6 à 7 cm et le Groseillier des Rochers R. petraeum Wulf. dont les feuilles en cœur tronqué ont plus de 7 cm[3].
-Cassissiers
-Ribes americanum Mill. - Cassissier américain
+          <t>Détermination (Europe)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe des espèces sauvages et d'autres cultivées dont certaines se répandent comme subspontanées. La présence d'épines identifie le Groseillier épineux Ribes uva-crispa L., sauvage, qui porte des fruits de 1 cm maximum à poils raides et le Groseillier à maquereau et ses cultivars, dont les baies de 1 à 4 cm peuvent être glabres ou entourées de poils mous.
+Les espèces sans épines se distinguent par le parfum des feuilles: Groseillier noir (Cassis), un pétiole court plus petit que la moitié de la longueur du limbe de la feuille: Groseillier des Alpes R. alpinum L., il se remarque aussi par ses baies rouges en grappes dressées; La forme et la taille des feuilles différencie le Groseillier rouge avec ses feuilles en forme de cœur de 6 à 7 cm et le Groseillier des Rochers R. petraeum Wulf. dont les feuilles en cœur tronqué ont plus de 7 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ribes_(genre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribes_(genre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cassissiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ribes americanum Mill. - Cassissier américain
 Ribes bracteosum Dougl. Cassissier de Californie
 Ribes ×cuverwelli Macfarl. (Ribes nigrum × Ribes uva-crispa)
 Ribes fragrans Pall.
@@ -598,9 +654,43 @@
 Ribes nigrum L. - Cassissier d'Europe
 Ribes ussuriensise Jancz.
 Ribes 'Josta' (Ribes nigrum tétraploïde × Ribes uva-crispa) × (Ribes nigrum tétraploïde × Ribes divaricatum)
-Ribes 'Kroma' (Ribes nigrum tétraploïde × Ribes niveum)
-Groseilliers à grappes
-Parfois aussi appelés "gadelle", guedelle ou guédelle, et toujours "raisinets" en Suisse romande.
+Ribes 'Kroma' (Ribes nigrum tétraploïde × Ribes niveum)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ribes_(genre)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribes_(genre)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Groseilliers à grappes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Parfois aussi appelés "gadelle", guedelle ou guédelle, et toujours "raisinets" en Suisse romande.
 Ribes emodense Rehd.
 Ribes glandulosum Weber, baie rouge velue
 Ribes × holosericeum Otto &amp; Dietr. Ribes petraeum caucasicum ×
@@ -611,11 +701,45 @@
 Ribes rubrum - Groseillier à grappes
 Ribes spicatum Groseillier en épi
 Ribes triste Pall. - Gadelier rouge sauvage
-Ribes warszewiczii Jancz.
-Groseilliers à maquereau
-Ces groseilles doivent leur nom au fait que leur jus peut servir d'assaisonnement aux maquereaux. Il peut également aciduler les sauces. Ils ressemblent aux groseilliers classiques avec des feuilles un peu plus grandes.
+Ribes warszewiczii Jancz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ribes_(genre)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ribes_(genre)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Groseilliers à maquereau</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ces groseilles doivent leur nom au fait que leur jus peut servir d'assaisonnement aux maquereaux. Il peut également aciduler les sauces. Ils ressemblent aux groseilliers classiques avec des feuilles un peu plus grandes.
 La véritable différence se fait au niveau des fruits, qui ne sont pas en grappes mais individuels, ovales et bien plus gros. De la taille d'une cerise à eau de vie, la groseille à maquereau garde le goût caractéristique acidulé des groseilles en grappes.
-Dans le patois du Nord de la France, certains l'appellent "gratte-poux" ou encore "croque-poux" [4].
+Dans le patois du Nord de la France, certains l'appellent "gratte-poux" ou encore "croque-poux" .
 Ribes aciculare Sm.
 Ribes alpestre Decne.
 Ribes burejense F.Schmidt
@@ -641,31 +765,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Ribes_(genre)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ribes_(genre)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ribes acerifolium T.J. Howell
@@ -727,7 +853,7 @@
 Ribes thatcherianum Munz
 Ribes triste Pallas - Gadelier rouge sauvage
 Ribes tularense (Coville) Fedde
-Ribes uva-crispa L. -Groseillier épineux[1] et Groseillier à maquereau
+Ribes uva-crispa L. -Groseillier épineux et Groseillier à maquereau
 Ribes velutinum Greene
 Ribes viburnifolium Gray
 Ribes victoris Greene
